--- a/biology/Zoologie/Catopsilia_pyranthe/Catopsilia_pyranthe.xlsx
+++ b/biology/Zoologie/Catopsilia_pyranthe/Catopsilia_pyranthe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catopsilia pyranthe est une espèce d'insectes lépidoptères de la sous-famille des Coliadinae (famille des Pieridae).
 </t>
@@ -511,86 +523,89 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Catopsilia pyranthe a été nommé par Carl von Linné en 1758.
-Noms vernaculaires
-Ce papillon se nomme en anglais Mottled Emigrant ou White Migrant.
-Liste des sous-espèces
-Catopsilia pyranthe pyranthe
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catopsilia pyranthe a été nommé par Carl von Linné en 1758.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Catopsilia_pyranthe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopsilia_pyranthe</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon se nomme en anglais Mottled Emigrant ou White Migrant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Catopsilia_pyranthe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopsilia_pyranthe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Catopsilia pyranthe pyranthe
 Catopsilia pyranthe chryseis (Drury, 1773)
 Catopsilia pyranthe crokera (Macleay, 1826) - Nord de l'Australie et à Timor.
 Catopsilia pyranthe evangelina (Butler, 1870)
-Catopsilia pyranthe minna (Herbst, 1792) - Ceylan[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Catopsilia_pyranthe</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Catopsilia_pyranthe</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle et la femelle sont d'une couleur allant du blanc au jaune pâle ou au vert pâle sur les deux faces. L'apex des antérieures est bordé de noir sur le dessus. La femelle présente un point discoidal bien visible sur le revers.
-Chenille
-En 22 à 29 jours l'œuf devient un imago.
-			Chenille.
-			Chrysalide.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Catopsilia_pyranthe</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Catopsilia_pyranthe</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il n'y a pas de diapause, Catopsilia pyranthe est multivoltin avec onze à douze générations par an[2].
-C'est un migrateur[3].
-Plantes hôtes
-Ce sont tous les Cassias (Cassia occidentalis, Cassia fistula, Cassia auriculata, Cassia tora)[1].
-</t>
+Catopsilia pyranthe minna (Herbst, 1792) - Ceylan.</t>
         </is>
       </c>
     </row>
@@ -615,16 +630,231 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle et la femelle sont d'une couleur allant du blanc au jaune pâle ou au vert pâle sur les deux faces. L'apex des antérieures est bordé de noir sur le dessus. La femelle présente un point discoidal bien visible sur le revers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Catopsilia_pyranthe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopsilia_pyranthe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 22 à 29 jours l'œuf devient un imago.
+			Chenille.
+			Chrysalide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Catopsilia_pyranthe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopsilia_pyranthe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'y a pas de diapause, Catopsilia pyranthe est multivoltin avec onze à douze générations par an.
+C'est un migrateur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Catopsilia_pyranthe</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopsilia_pyranthe</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont tous les Cassias (Cassia occidentalis, Cassia fistula, Cassia auriculata, Cassia tora).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Catopsilia_pyranthe</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopsilia_pyranthe</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catopsilia pyranthe est présent en Inde, à Ceylan, et en Australie[1].
-Biotope
-Les régions chaudes où poussent les Cassias plantes hôtes de sa chenille.
-Protection
-Pas de statut de protection particulier
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catopsilia pyranthe est présent en Inde, à Ceylan, et en Australie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Catopsilia_pyranthe</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopsilia_pyranthe</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les régions chaudes où poussent les Cassias plantes hôtes de sa chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Catopsilia_pyranthe</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catopsilia_pyranthe</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 </t>
         </is>
       </c>
